--- a/Besturingssystemen III/Labo/Reeks 2 - Excel Object Model/voud.xlsx
+++ b/Besturingssystemen III/Labo/Reeks 2 - Excel Object Model/voud.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master-Informatica\Besturingssystemen III\Labo\Reeks 2 - Excel Object Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4958BE5-F147-4030-AF08-34141BE90E33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F76C0D-7C88-4760-A5F0-38293C769F38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9885" xr2:uid="{DB96B0B9-E277-4B9F-A72A-F058ACAACA47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9885" xr2:uid="{D2BCCF77-1C0A-4181-9439-0A096649AD16}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Veelvouden van 2 tot 10" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,8 +26,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,9 +51,73 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -55,8 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,13 +449,968 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DE57D6-2E99-4E3E-A050-36765C50468E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B3C15C-2016-45A3-92D5-75F6B96D4E8A}">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6">
+        <v>36</v>
+      </c>
+      <c r="I4" s="7">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6">
+        <v>54</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42</v>
+      </c>
+      <c r="F7" s="6">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6">
+        <v>63</v>
+      </c>
+      <c r="I7" s="7">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6">
+        <v>56</v>
+      </c>
+      <c r="G8" s="6">
+        <v>64</v>
+      </c>
+      <c r="H8" s="6">
+        <v>72</v>
+      </c>
+      <c r="I8" s="7">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6">
+        <v>63</v>
+      </c>
+      <c r="G9" s="6">
+        <v>72</v>
+      </c>
+      <c r="H9" s="6">
+        <v>81</v>
+      </c>
+      <c r="I9" s="7">
+        <v>90</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6">
+        <v>80</v>
+      </c>
+      <c r="H10" s="6">
+        <v>90</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6">
+        <v>66</v>
+      </c>
+      <c r="F11" s="6">
+        <v>77</v>
+      </c>
+      <c r="G11" s="6">
+        <v>88</v>
+      </c>
+      <c r="H11" s="6">
+        <v>99</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6">
+        <v>72</v>
+      </c>
+      <c r="F12" s="6">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6">
+        <v>96</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6">
+        <v>78</v>
+      </c>
+      <c r="F13" s="6">
+        <v>91</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6">
+        <v>84</v>
+      </c>
+      <c r="F14" s="6">
+        <v>98</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6">
+        <v>90</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6">
+        <v>80</v>
+      </c>
+      <c r="E16" s="6">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6">
+        <v>68</v>
+      </c>
+      <c r="D17" s="6">
+        <v>85</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6">
+        <v>90</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6">
+        <v>95</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6">
+        <v>80</v>
+      </c>
+      <c r="D20" s="6">
+        <v>100</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6">
+        <v>63</v>
+      </c>
+      <c r="C21" s="6">
+        <v>84</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6">
+        <v>92</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6">
+        <v>75</v>
+      </c>
+      <c r="C25" s="6">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6">
+        <v>81</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6">
+        <v>84</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>58</v>
+      </c>
+      <c r="B29" s="6">
+        <v>87</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6">
+        <v>90</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6">
+        <v>93</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6">
+        <v>96</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>72</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>74</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>76</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>78</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>80</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>82</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>84</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>86</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>90</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>92</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>94</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>96</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>98</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>